--- a/testCases/TestCase.xlsx
+++ b/testCases/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22880" windowHeight="9800"/>
+    <workbookView windowWidth="19260" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -134,8 +134,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -147,24 +149,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -177,8 +186,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -191,9 +209,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -215,46 +247,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -268,7 +263,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,19 +278,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,74 +360,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -396,13 +385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -420,11 +402,63 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,63 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,153 +496,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -669,16 +651,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="38" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="38" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,45 +666,45 @@
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="20% - 着色 1" xfId="2"/>
     <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="20% - 着色 3" xfId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 着色 1" xfId="6"/>
-    <cellStyle name="百分比" xfId="7" builtinId="5"/>
-    <cellStyle name="标题" xfId="8"/>
-    <cellStyle name="40% - 着色 3" xfId="9"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="40% - 着色 1" xfId="5"/>
+    <cellStyle name="20% - 着色 3" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 3" xfId="8"/>
+    <cellStyle name="标题" xfId="9"/>
     <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
     <cellStyle name="20% - 着色 2" xfId="11"/>
     <cellStyle name="20% - 着色 4" xfId="12"/>
-    <cellStyle name="着色 1" xfId="13"/>
+    <cellStyle name="20% - 着色 5" xfId="13"/>
     <cellStyle name="解释性文本" xfId="14"/>
-    <cellStyle name="20% - 着色 5" xfId="15"/>
-    <cellStyle name="着色 2" xfId="16"/>
-    <cellStyle name="20% - 着色 6" xfId="17"/>
+    <cellStyle name="着色 1" xfId="15"/>
+    <cellStyle name="20% - 着色 6" xfId="16"/>
+    <cellStyle name="着色 2" xfId="17"/>
     <cellStyle name="40% - 着色 2" xfId="18"/>
-    <cellStyle name="计算" xfId="19"/>
-    <cellStyle name="40% - 着色 4" xfId="20"/>
-    <cellStyle name="好" xfId="21"/>
-    <cellStyle name="40% - 着色 5" xfId="22"/>
+    <cellStyle name="40% - 着色 4" xfId="19"/>
+    <cellStyle name="计算" xfId="20"/>
+    <cellStyle name="40% - 着色 5" xfId="21"/>
+    <cellStyle name="好" xfId="22"/>
     <cellStyle name="40% - 着色 6" xfId="23"/>
     <cellStyle name="60% - 着色 1" xfId="24"/>
-    <cellStyle name="输入" xfId="25"/>
-    <cellStyle name="60% - 着色 2" xfId="26"/>
+    <cellStyle name="60% - 着色 2" xfId="25"/>
+    <cellStyle name="输入" xfId="26"/>
     <cellStyle name="60% - 着色 3" xfId="27"/>
     <cellStyle name="60% - 着色 4" xfId="28"/>
-    <cellStyle name="链接单元格" xfId="29"/>
-    <cellStyle name="60% - 着色 5" xfId="30"/>
+    <cellStyle name="60% - 着色 5" xfId="29"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="60% - 着色 6" xfId="31"/>
     <cellStyle name="标题 1" xfId="32"/>
     <cellStyle name="标题 2" xfId="33"/>
     <cellStyle name="标题 3" xfId="34"/>
-    <cellStyle name="警告文本" xfId="35"/>
-    <cellStyle name="标题 4" xfId="36"/>
+    <cellStyle name="标题 4" xfId="35"/>
+    <cellStyle name="警告文本" xfId="36"/>
     <cellStyle name="差" xfId="37"/>
     <cellStyle name="超链接" xfId="38" builtinId="8"/>
     <cellStyle name="汇总" xfId="39"/>
     <cellStyle name="检查单元格" xfId="40"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42"/>
+    <cellStyle name="适中" xfId="41"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="输出" xfId="43"/>
     <cellStyle name="着色 3" xfId="44"/>
     <cellStyle name="着色 4" xfId="45"/>
@@ -1036,18 +1015,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -1066,10 +1047,10 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A11"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1077,8 +1058,7 @@
     <col min="1" max="1" width="9.55555555555556" customWidth="1"/>
     <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="26.0925925925926" customWidth="1"/>
-    <col min="4" max="4" width="27.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="27.2222222222222" customWidth="1"/>
+    <col min="4" max="5" width="27.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="38.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="22.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="46.4537037037037" customWidth="1"/>
@@ -1128,7 +1108,7 @@
         <v>数据库：</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="str">
         <f>IF(C4="接口调用","请求数据：",IF(C4="数据库操作","库名称：",""))</f>
@@ -1143,7 +1123,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1154,81 +1134,81 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="3" t="str">
         <f>IF(C8="接口调用","接口名称：",IF(C8="数据库操作","数据库：",""))</f>
         <v>接口名称：</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="3" t="str">
         <f>IF(C8="接口调用","请求数据：",IF(C8="数据库操作","库名称：",""))</f>
         <v>请求数据：</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="3" t="str">
         <f>IF(C8="接口调用","返回数据：",IF(C8="数据库操作","SQL：",""))</f>
         <v>返回数据：</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:10">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/testCases/TestCase.xlsx
+++ b/testCases/TestCase.xlsx
@@ -1,137 +1,220 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinshiqiang\Desktop\InterfaceTestingFromework\testCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19260" windowHeight="9800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="第一页" sheetId="1" r:id="rId1"/>
+    <sheet name="第二页" sheetId="2" r:id="rId2"/>
+    <sheet name="第三页" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+  <si>
+    <t>登录接口测试</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>操作方式：</t>
+  </si>
+  <si>
+    <t>数据库操作</t>
+  </si>
+  <si>
+    <t>后置条件</t>
+  </si>
+  <si>
+    <t>接口调用</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>API Name</t>
+  </si>
+  <si>
+    <t>Request Headers</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Check Point</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Host</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>am_host</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardown</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=${gen_md5(Qsq522439539)}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.ord_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=data.token</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Upload/Excel/saveExcel</t>
+  </si>
+  <si>
+    <t>/api/User/login</t>
+  </si>
+  <si>
+    <t>保存excel</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.header.0.data_type=Integer;json.header.1.data_type=Integer</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>90011 = code</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>登录接口测试</t>
-  </si>
-  <si>
-    <t>Hosts</t>
-  </si>
-  <si>
-    <t>account.test.com</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>操作方式：</t>
-  </si>
-  <si>
-    <t>数据库操作</t>
-  </si>
-  <si>
-    <t>后置条件</t>
-  </si>
-  <si>
-    <t>接口调用</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>API Name</t>
-  </si>
-  <si>
-    <t>URL</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbname</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from table;</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/User/login</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/User/login</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Upload/Excel/saveExcel</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=data.token</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=data.token</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.password=${gen_md5(Qsq522439539)}</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.password=${gen_md5(Qsq522439539)};headers.token=$token</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Request Headers</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Request Data</t>
-  </si>
-  <si>
-    <t>Assert Methods</t>
-  </si>
-  <si>
-    <t>Check Point</t>
-  </si>
-  <si>
-    <t>Correlation</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>api_User_login</t>
-  </si>
-  <si>
-    <t>password=${gen_md5(Qsq522439539)}</t>
-  </si>
-  <si>
-    <t>Equal</t>
-  </si>
-  <si>
-    <t>code=0;msg=成功;data.org_id=1</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>被调用API的名称</t>
-  </si>
-  <si>
-    <t>请求头中需要替换的字段和内容，多个字段间用分号分割（格式：headers.token=88888;user_agent=aaa）</t>
-  </si>
-  <si>
-    <t>请求数据中需要替换的字段和内容，多个字段间用分号分割（格式：data.username=tsst1;password=123456）</t>
-  </si>
-  <si>
-    <t>断言方法，列出支持的断言方法，如：Equal,NotEqual,True,False,In,NotIn</t>
-  </si>
-  <si>
-    <t>检查点，要验证的返回值中的数据，如：StatusCode=200;response.code=0;response.data.status=1</t>
-  </si>
-  <si>
-    <t>指定要将返回之中的哪些数据存下来，格式：要保存的名称=response中的位置，使用时将名称前加$ (如：token=reqponse.data.token  使用：headers.token=$token)</t>
-  </si>
-  <si>
-    <t>是否运行此case</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -262,8 +345,166 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +601,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -491,158 +905,379 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,66 +1286,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="38" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="33" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="86">
+    <cellStyle name="20% - 着色 1" xfId="1"/>
+    <cellStyle name="20% - 着色 1 2" xfId="62"/>
+    <cellStyle name="20% - 着色 2" xfId="6"/>
+    <cellStyle name="20% - 着色 2 2" xfId="66"/>
+    <cellStyle name="20% - 着色 3" xfId="3"/>
+    <cellStyle name="20% - 着色 3 2" xfId="70"/>
+    <cellStyle name="20% - 着色 4" xfId="7"/>
+    <cellStyle name="20% - 着色 4 2" xfId="74"/>
+    <cellStyle name="20% - 着色 5" xfId="8"/>
+    <cellStyle name="20% - 着色 5 2" xfId="78"/>
+    <cellStyle name="20% - 着色 6" xfId="11"/>
+    <cellStyle name="20% - 着色 6 2" xfId="82"/>
+    <cellStyle name="40% - 着色 1" xfId="2"/>
+    <cellStyle name="40% - 着色 1 2" xfId="63"/>
+    <cellStyle name="40% - 着色 2" xfId="13"/>
+    <cellStyle name="40% - 着色 2 2" xfId="67"/>
+    <cellStyle name="40% - 着色 3" xfId="4"/>
+    <cellStyle name="40% - 着色 3 2" xfId="71"/>
+    <cellStyle name="40% - 着色 4" xfId="14"/>
+    <cellStyle name="40% - 着色 4 2" xfId="75"/>
+    <cellStyle name="40% - 着色 5" xfId="16"/>
+    <cellStyle name="40% - 着色 5 2" xfId="79"/>
+    <cellStyle name="40% - 着色 6" xfId="18"/>
+    <cellStyle name="40% - 着色 6 2" xfId="83"/>
+    <cellStyle name="60% - 着色 1" xfId="19"/>
+    <cellStyle name="60% - 着色 1 2" xfId="64"/>
+    <cellStyle name="60% - 着色 2" xfId="20"/>
+    <cellStyle name="60% - 着色 2 2" xfId="68"/>
+    <cellStyle name="60% - 着色 3" xfId="22"/>
+    <cellStyle name="60% - 着色 3 2" xfId="72"/>
+    <cellStyle name="60% - 着色 4" xfId="23"/>
+    <cellStyle name="60% - 着色 4 2" xfId="76"/>
+    <cellStyle name="60% - 着色 5" xfId="24"/>
+    <cellStyle name="60% - 着色 5 2" xfId="80"/>
+    <cellStyle name="60% - 着色 6" xfId="26"/>
+    <cellStyle name="60% - 着色 6 2" xfId="84"/>
+    <cellStyle name="标题" xfId="5"/>
+    <cellStyle name="标题 1" xfId="27"/>
+    <cellStyle name="标题 1 2" xfId="45"/>
+    <cellStyle name="标题 2" xfId="28"/>
+    <cellStyle name="标题 2 2" xfId="46"/>
+    <cellStyle name="标题 3" xfId="29"/>
+    <cellStyle name="标题 3 2" xfId="47"/>
+    <cellStyle name="标题 4" xfId="30"/>
+    <cellStyle name="标题 4 2" xfId="48"/>
+    <cellStyle name="标题 5" xfId="44"/>
+    <cellStyle name="差" xfId="32"/>
+    <cellStyle name="差 2" xfId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="20% - 着色 1" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="40% - 着色 1" xfId="5"/>
-    <cellStyle name="20% - 着色 3" xfId="6"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 3" xfId="8"/>
-    <cellStyle name="标题" xfId="9"/>
-    <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
-    <cellStyle name="20% - 着色 2" xfId="11"/>
-    <cellStyle name="20% - 着色 4" xfId="12"/>
-    <cellStyle name="20% - 着色 5" xfId="13"/>
-    <cellStyle name="解释性文本" xfId="14"/>
-    <cellStyle name="着色 1" xfId="15"/>
-    <cellStyle name="20% - 着色 6" xfId="16"/>
-    <cellStyle name="着色 2" xfId="17"/>
-    <cellStyle name="40% - 着色 2" xfId="18"/>
-    <cellStyle name="40% - 着色 4" xfId="19"/>
-    <cellStyle name="计算" xfId="20"/>
-    <cellStyle name="40% - 着色 5" xfId="21"/>
-    <cellStyle name="好" xfId="22"/>
-    <cellStyle name="40% - 着色 6" xfId="23"/>
-    <cellStyle name="60% - 着色 1" xfId="24"/>
-    <cellStyle name="60% - 着色 2" xfId="25"/>
-    <cellStyle name="输入" xfId="26"/>
-    <cellStyle name="60% - 着色 3" xfId="27"/>
-    <cellStyle name="60% - 着色 4" xfId="28"/>
-    <cellStyle name="60% - 着色 5" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
-    <cellStyle name="60% - 着色 6" xfId="31"/>
-    <cellStyle name="标题 1" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34"/>
-    <cellStyle name="标题 4" xfId="35"/>
-    <cellStyle name="警告文本" xfId="36"/>
-    <cellStyle name="差" xfId="37"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8"/>
-    <cellStyle name="汇总" xfId="39"/>
-    <cellStyle name="检查单元格" xfId="40"/>
-    <cellStyle name="适中" xfId="41"/>
-    <cellStyle name="着色 5" xfId="42"/>
-    <cellStyle name="输出" xfId="43"/>
-    <cellStyle name="着色 3" xfId="44"/>
-    <cellStyle name="着色 4" xfId="45"/>
-    <cellStyle name="着色 6" xfId="46"/>
-    <cellStyle name="注释" xfId="47"/>
+    <cellStyle name="常规 2" xfId="43"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="85"/>
+    <cellStyle name="好" xfId="17"/>
+    <cellStyle name="好 2" xfId="49"/>
+    <cellStyle name="汇总" xfId="34"/>
+    <cellStyle name="汇总 2" xfId="60"/>
+    <cellStyle name="计算" xfId="15"/>
+    <cellStyle name="计算 2" xfId="54"/>
+    <cellStyle name="检查单元格" xfId="35"/>
+    <cellStyle name="检查单元格 2" xfId="56"/>
+    <cellStyle name="解释性文本" xfId="9"/>
+    <cellStyle name="解释性文本 2" xfId="59"/>
+    <cellStyle name="警告文本" xfId="31"/>
+    <cellStyle name="警告文本 2" xfId="57"/>
+    <cellStyle name="链接单元格" xfId="25"/>
+    <cellStyle name="链接单元格 2" xfId="55"/>
+    <cellStyle name="适中" xfId="36"/>
+    <cellStyle name="适中 2" xfId="51"/>
+    <cellStyle name="输出" xfId="38"/>
+    <cellStyle name="输出 2" xfId="53"/>
+    <cellStyle name="输入" xfId="21"/>
+    <cellStyle name="输入 2" xfId="52"/>
+    <cellStyle name="着色 1" xfId="10"/>
+    <cellStyle name="着色 1 2" xfId="61"/>
+    <cellStyle name="着色 2" xfId="12"/>
+    <cellStyle name="着色 2 2" xfId="65"/>
+    <cellStyle name="着色 3" xfId="39"/>
+    <cellStyle name="着色 3 2" xfId="69"/>
+    <cellStyle name="着色 4" xfId="40"/>
+    <cellStyle name="着色 4 2" xfId="73"/>
+    <cellStyle name="着色 5" xfId="37"/>
+    <cellStyle name="着色 5 2" xfId="77"/>
+    <cellStyle name="着色 6" xfId="41"/>
+    <cellStyle name="着色 6 2" xfId="81"/>
+    <cellStyle name="注释" xfId="42"/>
+    <cellStyle name="注释 2" xfId="58"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1009,6 +1716,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1043,255 +1751,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.55555555555556" customWidth="1"/>
-    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.0925925925926" customWidth="1"/>
-    <col min="4" max="5" width="27.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="38.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="22.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="46.4537037037037" customWidth="1"/>
-    <col min="9" max="9" width="31.5462962962963" customWidth="1"/>
-    <col min="10" max="10" width="9.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="62.1796875" customWidth="1"/>
+    <col min="4" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.453125" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="str">
+        <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
+        <v>接口名称：</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="str">
+        <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
+        <v>请求数据：</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="str">
+        <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
+        <v>返回数据：</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="str">
+        <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
+        <v>数据库：</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="str">
+        <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
+        <v>库名称：</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="str">
+        <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
+        <v>SQL：</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="str">
-        <f>IF(C4="接口调用","接口名称：",IF(C4="数据库操作","数据库：",""))</f>
-        <v>数据库：</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="str">
-        <f>IF(C4="接口调用","请求数据：",IF(C4="数据库操作","库名称：",""))</f>
-        <v>库名称：</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="str">
-        <f>IF(C4="接口调用","返回数据：",IF(C4="数据库操作","SQL：",""))</f>
-        <v>SQL：</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="str">
-        <f>IF(C8="接口调用","接口名称：",IF(C8="数据库操作","数据库：",""))</f>
-        <v>接口名称：</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="str">
-        <f>IF(C8="接口调用","请求数据：",IF(C8="数据库操作","库名称：",""))</f>
-        <v>请求数据：</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="str">
-        <f>IF(C8="接口调用","返回数据：",IF(C8="数据库操作","SQL：",""))</f>
-        <v>返回数据：</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:10">
-      <c r="A13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16 I14 B11">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
+      <formula1>"接口调用,数据库操作"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="4" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.453125" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="str">
+        <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
+        <v>数据库：</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="str">
+        <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
+        <v>库名称：</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="str">
+        <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
+        <v>SQL：</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="str">
+        <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
+        <v>接口名称：</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="str">
+        <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
+        <v>请求数据：</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="str">
+        <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
+        <v>返回数据：</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14">
+  <phoneticPr fontId="21" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16 B11">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
       <formula1>"接口调用,数据库操作"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="4" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.453125" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="str">
+        <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
+        <v>数据库：</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="str">
+        <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
+        <v>库名称：</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="str">
+        <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
+        <v>SQL：</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="str">
+        <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
+        <v>接口名称：</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="str">
+        <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
+        <v>请求数据：</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="str">
+        <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
+        <v>返回数据：</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16 B11">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
-      <formula1>"Equal,NotEqual,True,False,In,NotIn"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
+      <formula1>"接口调用,数据库操作"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="password=${gen_md5(Qsq522439539)}"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testCases/TestCase.xlsx
+++ b/testCases/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>名称</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>setup</t>
+  </si>
+  <si>
+    <t>teardown</t>
   </si>
   <si>
     <t>登陆</t>
@@ -120,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -134,8 +140,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -149,96 +231,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -255,6 +247,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
@@ -278,19 +284,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,61 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,17 +391,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,8 +403,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,6 +424,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -439,11 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,15 +474,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,142 +505,142 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -642,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -657,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="38" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="38" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,45 +672,45 @@
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="20% - 着色 1" xfId="2"/>
     <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="40% - 着色 1" xfId="5"/>
-    <cellStyle name="20% - 着色 3" xfId="6"/>
+    <cellStyle name="20% - 着色 3" xfId="4"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="40% - 着色 1" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 着色 3" xfId="8"/>
-    <cellStyle name="标题" xfId="9"/>
+    <cellStyle name="标题" xfId="8"/>
+    <cellStyle name="40% - 着色 3" xfId="9"/>
     <cellStyle name="货币[0]" xfId="10" builtinId="7"/>
     <cellStyle name="20% - 着色 2" xfId="11"/>
     <cellStyle name="20% - 着色 4" xfId="12"/>
-    <cellStyle name="20% - 着色 5" xfId="13"/>
+    <cellStyle name="着色 1" xfId="13"/>
     <cellStyle name="解释性文本" xfId="14"/>
-    <cellStyle name="着色 1" xfId="15"/>
-    <cellStyle name="20% - 着色 6" xfId="16"/>
-    <cellStyle name="着色 2" xfId="17"/>
+    <cellStyle name="20% - 着色 5" xfId="15"/>
+    <cellStyle name="着色 2" xfId="16"/>
+    <cellStyle name="20% - 着色 6" xfId="17"/>
     <cellStyle name="40% - 着色 2" xfId="18"/>
-    <cellStyle name="40% - 着色 4" xfId="19"/>
-    <cellStyle name="计算" xfId="20"/>
-    <cellStyle name="40% - 着色 5" xfId="21"/>
-    <cellStyle name="好" xfId="22"/>
+    <cellStyle name="计算" xfId="19"/>
+    <cellStyle name="40% - 着色 4" xfId="20"/>
+    <cellStyle name="好" xfId="21"/>
+    <cellStyle name="40% - 着色 5" xfId="22"/>
     <cellStyle name="40% - 着色 6" xfId="23"/>
     <cellStyle name="60% - 着色 1" xfId="24"/>
-    <cellStyle name="60% - 着色 2" xfId="25"/>
-    <cellStyle name="输入" xfId="26"/>
+    <cellStyle name="输入" xfId="25"/>
+    <cellStyle name="60% - 着色 2" xfId="26"/>
     <cellStyle name="60% - 着色 3" xfId="27"/>
     <cellStyle name="60% - 着色 4" xfId="28"/>
-    <cellStyle name="60% - 着色 5" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="29"/>
+    <cellStyle name="60% - 着色 5" xfId="30"/>
     <cellStyle name="60% - 着色 6" xfId="31"/>
     <cellStyle name="标题 1" xfId="32"/>
     <cellStyle name="标题 2" xfId="33"/>
     <cellStyle name="标题 3" xfId="34"/>
-    <cellStyle name="标题 4" xfId="35"/>
-    <cellStyle name="警告文本" xfId="36"/>
+    <cellStyle name="警告文本" xfId="35"/>
+    <cellStyle name="标题 4" xfId="36"/>
     <cellStyle name="差" xfId="37"/>
     <cellStyle name="超链接" xfId="38" builtinId="8"/>
     <cellStyle name="汇总" xfId="39"/>
     <cellStyle name="检查单元格" xfId="40"/>
-    <cellStyle name="适中" xfId="41"/>
-    <cellStyle name="着色 5" xfId="42"/>
+    <cellStyle name="着色 5" xfId="41"/>
+    <cellStyle name="适中" xfId="42"/>
     <cellStyle name="输出" xfId="43"/>
     <cellStyle name="着色 3" xfId="44"/>
     <cellStyle name="着色 4" xfId="45"/>
@@ -1045,12 +1051,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1187,50 +1193,62 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="H16" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -1238,7 +1256,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -1246,7 +1264,7 @@
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1254,7 +1272,7 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1262,10 +1280,26 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1307,7 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
@@ -1286,9 +1320,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14">
       <formula1>"Equal,NotEqual,True,False,In,NotIn"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J16">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G16">
+      <formula1>"Equal,NotEqual,True,False,In,NotIn"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="password=${gen_md5(Qsq522439539)}"/>
+    <hyperlink ref="F16" r:id="rId1" display="password=${gen_md5(Qsq522439539)}"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testCases/TestCase.xlsx
+++ b/testCases/TestCase.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="第一页" sheetId="1" r:id="rId1"/>
-    <sheet name="第二页" sheetId="2" r:id="rId2"/>
-    <sheet name="第三页" sheetId="3" r:id="rId3"/>
+    <sheet name="suite1" sheetId="1" r:id="rId1"/>
+    <sheet name="suite2" sheetId="2" r:id="rId2"/>
+    <sheet name="suite3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/testCases/TestCase.xlsx
+++ b/testCases/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="suite1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>登录接口测试</t>
   </si>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>0 = code;成功 = msg;1 in data.ord_id</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -185,6 +181,22 @@
   </si>
   <si>
     <t>Request Data</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.header.0.data_type=Integer;json.header.1.data_type=Integer</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1754,9 +1766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1805,7 +1817,7 @@
         <v>接口名称：</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1815,7 +1827,7 @@
         <v>请求数据：</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1825,7 +1837,7 @@
         <v>返回数据：</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1853,7 +1865,7 @@
         <v>库名称：</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1863,7 +1875,7 @@
         <v>SQL：</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1912,23 +1924,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1937,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
@@ -1955,22 +1967,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2007,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2108,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
@@ -2159,13 +2171,13 @@
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,22 +2200,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2235,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2257,7 @@
     <col min="2" max="2" width="21.453125" customWidth="1"/>
     <col min="3" max="3" width="33.54296875" customWidth="1"/>
     <col min="4" max="5" width="27.1796875" customWidth="1"/>
-    <col min="6" max="6" width="68.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.6328125" customWidth="1"/>
     <col min="7" max="7" width="46.453125" customWidth="1"/>
     <col min="8" max="8" width="31.54296875" customWidth="1"/>
     <col min="9" max="9" width="9.1796875" customWidth="1"/>
@@ -2253,7 +2265,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2356,10 +2368,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>12</v>
@@ -2377,7 +2389,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
@@ -2387,13 +2399,13 @@
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2416,22 +2428,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2445,7 +2457,7 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16 B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I16">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -2456,5 +2468,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testCases/TestCase.xlsx
+++ b/testCases/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="suite1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>登录接口测试</t>
   </si>
@@ -72,39 +72,35 @@
   </si>
   <si>
     <t>Active</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Host</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>am_host</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>teardown</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>setup</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>password=${gen_md5(Qsq522439539)}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>token=data.token</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>cm_host</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>/api/Upload/Excel/saveExcel</t>
@@ -114,103 +110,138 @@
   </si>
   <si>
     <t>保存excel</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>json.header.0.data_type=Integer;json.header.1.data_type=Integer</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>90011 = code</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>dbname</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>select * from table;</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>/api/User/login</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>/api/User/login</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>/api/Upload/Excel/saveExcel</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>token=data.token</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>headers.token=$token</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>token=data.token</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>data.password=${gen_md5(Qsq522439539)}</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>data.password=${gen_md5(Qsq522439539)};headers.token=$token</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
     <t>Request Headers</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Request Data</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>json.header.0.data_type=Integer;json.header.1.data_type=Integer</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传excel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Upload/Excel/uploadExcel</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>idAdd=0;file=正确文件.xlsx</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.password=${gen_md5(Qsq522439539)}</t>
+  </si>
+  <si>
+    <t>0 = code</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>90016 = code</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>90016 = code</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1029,267 +1060,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1298,37 +1329,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="33" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="33" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1764,11 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1800,7 +1834,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1811,37 +1845,37 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="str">
         <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
         <v>接口名称：</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="str">
         <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
         <v>请求数据：</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="str">
         <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
         <v>返回数据：</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1852,30 +1886,30 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="str">
         <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
         <v>数据库：</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="str">
         <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
         <v>库名称：</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="str">
         <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
         <v>SQL：</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,23 +1958,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,7 +1983,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
@@ -1967,25 +2001,52 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1994,9 +2055,9 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16 I14 B11">
+  <phoneticPr fontId="22" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I17">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
@@ -2004,9 +2065,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2052,7 +2110,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2063,28 +2121,28 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="str">
         <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
         <v>数据库：</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="str">
         <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
         <v>库名称：</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="str">
         <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
         <v>SQL：</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2095,21 +2153,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="str">
         <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
         <v>接口名称：</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="str">
         <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
         <v>请求数据：</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="str">
         <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
         <v>返回数据：</v>
@@ -2120,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2161,23 +2219,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2185,8 +2243,12 @@
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2200,22 +2262,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2227,9 +2289,9 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I16 B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I16">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -2247,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2327,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2280,7 +2342,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2291,28 +2353,28 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="str">
         <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
         <v>数据库：</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="str">
         <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
         <v>库名称：</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="str">
         <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
         <v>SQL：</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2323,21 +2385,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="str">
         <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
         <v>接口名称：</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="str">
         <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
         <v>请求数据：</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="str">
         <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
         <v>返回数据：</v>
@@ -2368,10 +2430,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>12</v>
@@ -2389,23 +2451,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2413,8 +2475,12 @@
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2428,22 +2494,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2455,7 +2521,7 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I16">
       <formula1>"Yes,No"</formula1>
